--- a/DocData/GVCP.xlsx
+++ b/DocData/GVCP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15495" windowHeight="12105"/>
+    <workbookView windowWidth="14400" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
     <t>cmdheader:READREG_ACK(0x81)
 Status:GEV_STATUS_SUCCESS(0x0000)
 length:0x0004
-Reg addr(Device MAC address Low(Net #0)):0x0092c
+Reg addr:0x0092c
 32位数据
 {
 SCSPx Regiester Support:true
@@ -609,10 +609,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -620,6 +620,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -672,6 +679,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,20 +745,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -776,6 +776,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -788,6 +800,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -806,6 +830,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -848,12 +878,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -872,6 +896,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -884,48 +950,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -933,30 +957,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,133 +1087,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1577,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1842,7 +1842,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" ht="135" spans="2:3">
+    <row r="34" ht="121.5" spans="2:3">
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>

--- a/DocData/GVCP.xlsx
+++ b/DocData/GVCP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12105"/>
+    <workbookView windowWidth="3975" windowHeight="1350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,10 +609,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -745,9 +745,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,8 +759,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,6 +776,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -794,12 +806,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -824,31 +860,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,24 +926,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -896,6 +938,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -908,55 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,16 +1087,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,112 +1108,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1578,7 +1578,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
